--- a/biology/Mycologie/Liste_des_espèces_du_genre_Tricholoma/Liste_des_espèces_du_genre_Tricholoma.xlsx
+++ b/biology/Mycologie/Liste_des_espèces_du_genre_Tricholoma/Liste_des_espèces_du_genre_Tricholoma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Tricholoma</t>
+          <t>Liste_des_espèces_du_genre_Tricholoma</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Cet article regroupe l'ensemble des espèces de champignons (Fungi) du genre Tricholoma. En septembre 2021, Index Fungorum liste 379 espèces au sein de ce genre[1]
+Cet article regroupe l'ensemble des espèces de champignons (Fungi) du genre Tricholoma. En septembre 2021, Index Fungorum liste 379 espèces au sein de ce genre
 Pour les noms français, voir l'article Tricholome.
 Sommaire :
 Haut – A
@@ -522,7 +534,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Tricholoma</t>
+          <t>Liste_des_espèces_du_genre_Tricholoma</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -540,21 +552,23 @@
           <t>A</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Tricholoma abietinum Velen. 1920[2] – Europe
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Tricholoma abietinum Velen. 1920 – Europe
 Tricholoma acerbum (Bull.) Quél. 1872
 Tricholoma acicularum Velen. 1947
-Tricholoma acutistramineum Corner 1994[3] – Singapour
-Tricholoma aeruginascens Corner 1994[3]
-Tricholoma aestivum Velen. 1920[2] – Europe
+Tricholoma acutistramineum Corner 1994 – Singapour
+Tricholoma aeruginascens Corner 1994
+Tricholoma aestivum Velen. 1920 – Europe
 Tricholoma aestuans (Fr.) Gillet 1874
-Tricholoma albatum Velen. 1920[2] – Europe
+Tricholoma albatum Velen. 1920 – Europe
 Tricholoma albidulum N.Ayala, G.Moreno &amp; Esteve-Rav. 1997
 Tricholoma albidum Bon 1984
 Tricholoma albobrunneum (Pers.) P.Kumm. 1871
 Tricholoma alboconicum (J.E.Lange) Clémençon 1983
-Tricholoma alboluteum Velen. 1920[2] – Europe
+Tricholoma alboluteum Velen. 1920 – Europe
 Tricholoma albosquamulatum Beeli 1927
 Tricholoma album (Schaeff.) P.Kumm. 1871
 Tricholoma altaicum Singer 1943
@@ -565,14 +579,14 @@
 Tricholoma argenteum Ovrebo 1989
 Tricholoma argyraceum (Bull.) Gillet 1874
 Tricholoma argyropotamicum Speg. 1899
-Tricholoma arvernense Bon 1976[4] – Europe
+Tricholoma arvernense Bon 1976 – Europe
 Tricholoma atro-olivaceum Rick 1939
 Tricholoma atrodiscus Ovrebo 1989
-Tricholoma atroscriptum Corner 1994[3]
+Tricholoma atroscriptum Corner 1994
 Tricholoma atrosquamosum Sacc. 1887
-Tricholoma atroviolaceum A.H.Sm. 1944[5] – Amérique du Nord
+Tricholoma atroviolaceum A.H.Sm. 1944 – Amérique du Nord
 Tricholoma aurantiipes Hongo 1991
-Tricholoma aurantio-olivaceum A.H.Sm. 1944[5] – Amérique du Nord
+Tricholoma aurantio-olivaceum A.H.Sm. 1944 – Amérique du Nord
 Tricholoma aurantium (Schaeff.) Ricken 1914
 Tricholoma austrocolossum Grgur. 2002
 Tricholoma azalearum (Murrill) Murrill 1942</t>
@@ -585,7 +599,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Tricholoma</t>
+          <t>Liste_des_espèces_du_genre_Tricholoma</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -603,28 +617,30 @@
           <t>B</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Tricholoma bakamatsutake Hongo 1974
 Tricholoma baldratianum Sacc. 1916
-Tricholoma bambusarum Corner 1994[3]
+Tricholoma bambusarum Corner 1994
 Tricholoma basirubens (Bon) A.Riva &amp; Bon 1988
 Tricholoma batschii Gulden 1969
-Tricholoma betilonganum Corner 1994[3]
-Tricholoma bezdeki Velen. 1920[2] – Europe
+Tricholoma betilonganum Corner 1994
+Tricholoma bezdeki Velen. 1920 – Europe
 Tricholoma bisontinum Rolland 1902
 Tricholoma bonii Basso &amp; Candusso 1997
 Tricholoma boreosulphurescens Mort. Chr. &amp; Heilm.-Claus., 2017
-Tricholoma borgsjoeënse Jacobsson &amp; Muskos 2006 – Fennoscandie[6]
-Tricholoma borneomurinum Corner 1994[3]
+Tricholoma borgsjoeënse Jacobsson &amp; Muskos 2006 – Fennoscandie
+Tricholoma borneomurinum Corner 1994
 Tricholoma bresadolanum Clémençon 1977
-Tricholoma brunneicirrus Corner 1994[3]
+Tricholoma brunneicirrus Corner 1994
 Tricholoma brunneosquamosa Beeli 1927
 Tricholoma bryogenum Mort. Chr., Heilm.-Claus. &amp; Vauras, 2017
 Tricholoma bubalinum (G.Stev.) E.Horak 1971
 Tricholoma bufonium (Pers.) Gillet 1874
-Tricholoma bulliardii Velen. 1939[7] – Europe
-Tricholoma busuense Corner 1994[3]
+Tricholoma bulliardii Velen. 1939 – Europe
+Tricholoma busuense Corner 1994
 Tricholoma buzae Dennis 1970</t>
         </is>
       </c>
@@ -635,7 +651,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Tricholoma</t>
+          <t>Liste_des_espèces_du_genre_Tricholoma</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -653,14 +669,16 @@
           <t>C</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Tricholoma caligatum (Viv.) Ricken 1914
-Tricholoma carbonicum Velen. 1920[2] – Europe
+Tricholoma carbonicum Velen. 1920 – Europe
 Tricholoma carneoflavidum (Kalchbr.) McAlpine 1895
 Tricholoma cartilagineum (Bull.) Quél. 1872
 Tricholoma catulus E.H.L.Krause 1928
-Tricholoma cavipes Corner 1994[3]
+Tricholoma cavipes Corner 1994
 Tricholoma cedretorum (Bon) A.Riva 2000
 Tricholoma cedrorum Maire 1914
 Tricholoma ceriniceps Pegler 1983
@@ -670,22 +688,22 @@
 Tricholoma cingulatum (Almfelt ex Fr.) Jacobashch 1890
 Tricholoma cinnamomeum (Murrill) Murrill 1914
 Tricholoma clavipes Riedl 1976
-Tricholoma clavocystis Musumeci &amp; Contu 2008[8] – Europe
-Tricholoma coffeaceum Velen. 1920[2] – Europe
-Tricholoma collybiiformis Velen. 1920[2] – Europe
+Tricholoma clavocystis Musumeci &amp; Contu 2008 – Europe
+Tricholoma coffeaceum Velen. 1920 – Europe
+Tricholoma collybiiformis Velen. 1920 – Europe
 Tricholoma colossus (Fr.) Quél. 1872
 Tricholoma columbetta (Fr.) P.Kumm. 1871
 Tricholoma concolor (Delile ex De Seynes) P.-A.Moreau, Bellanger &amp; Courtec. 2011
 Tricholoma confragipes Iwade 1944
 Tricholoma cookeanum Bertault &amp; Malençon 1975
-Tricholoma cordae Velen. 1920[2] – Europe
+Tricholoma cordae Velen. 1920 – Europe
 Tricholoma cortinatellum Singer 1954
-Tricholoma cortinatum Singer 1952[9]
+Tricholoma cortinatum Singer 1952
 Tricholoma crenulatum Horniček 1977
-Tricholoma crepidotoides Corner 1994[3]
+Tricholoma crepidotoides Corner 1994
 Tricholoma crucigerum (St.-Amans) Sacc. &amp; Trotter 191
 Tricholoma cuneifoloides (Fr.) P.Kumm. 1871
-Tricholoma cutifractum Corner 1994[3]
+Tricholoma cutifractum Corner 1994
 Tricholoma cyclophilum (Lasch) Sacc. &amp; Trotter 1912
 Tricholoma czuicum (Singer) Singer, 1951</t>
         </is>
@@ -697,7 +715,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Tricholoma</t>
+          <t>Liste_des_espèces_du_genre_Tricholoma</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -715,16 +733,18 @@
           <t>D</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Tricholoma dermolomoides Corner 1994[3]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Tricholoma dermolomoides Corner 1994
 Tricholoma diabolicum Rick 1926
 Tricholoma diemii Singer 1954
 Tricholoma distantifoliaceum E.Ludw. &amp; H.Willer 2012
 Tricholoma distinguendum S.Lundell 1942
 Tricholoma dulciolens Kytöv. 1989
 Tricholoma duriusculum R.Schulz 1927
-Tricholoma durum Velen. 1939[7] – Europe</t>
+Tricholoma durum Velen. 1939 – Europe</t>
         </is>
       </c>
     </row>
@@ -734,7 +754,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Tricholoma</t>
+          <t>Liste_des_espèces_du_genre_Tricholoma</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -752,10 +772,12 @@
           <t>E</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Tricholoma edentulum Velen. 1920[2] – Europe
-Tricholoma elegans G.Stev. 1964[10] – Nouvelle-Zélande
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Tricholoma edentulum Velen. 1920 – Europe
+Tricholoma elegans G.Stev. 1964 – Nouvelle-Zélande
 Tricholoma elvirae Singer 1969
 Tricholoma eosinobasis Babos, Bohus &amp; Vasas 1991
 Tricholoma equestre (L.) P.Kumm. 1871
@@ -770,7 +792,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Tricholoma</t>
+          <t>Liste_des_espèces_du_genre_Tricholoma</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -788,22 +810,24 @@
           <t>F</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Tricholoma fagineum Velen. 1925
-Tricholoma fagnani Singer 1952[9]
+Tricholoma fagnani Singer 1952
 Tricholoma farinolens E.Horak 1964
-Tricholoma ferrugineimelleum Corner 1994[3]
+Tricholoma ferrugineimelleum Corner 1994
 Tricholoma fiherensis L.M.Dufour &amp; H.Poiss. 1927
 Tricholoma filamentosum (Alessio) Alessio 1988
-Tricholoma fissilifolium Corner 1994[3]
+Tricholoma fissilifolium Corner 1994
 Tricholoma flammulaecolor Beeli 1927
-Tricholoma flavifolium Velen. 1920[2] – Europe
+Tricholoma flavifolium Velen. 1920 – Europe
 Tricholoma focale (Fr.) Ricken 1914
 Tricholoma foliicola Har.Takah. 2001
 Tricholoma forteflavescens Reschke, Popa, Zhu L. Yang &amp; G. Kost, 2018
 Tricholoma fracticum (Britzelm.) Kreisel 1984
-Tricholoma fractipes Velen. 1920[2] – Europe
+Tricholoma fractipes Velen. 1920 – Europe
 Tricholoma frondosae Kalamees &amp; Shchukin 2001
 Tricholoma fuegianum Courtec. 1985
 Tricholoma fuliginea Beeli 1927
@@ -811,8 +835,8 @@
 Tricholoma fulvocastaneum Hongo 1960
 Tricholoma fulvum (DC.) Bigeard &amp; H.Guill. 1909
 Tricholoma fumidellum (Peck) Sacc. 1887
-Tricholoma furcatifolium Corner 1994[3]
-Tricholoma fuscinanum Corner 1994[3]
+Tricholoma furcatifolium Corner 1994
+Tricholoma fuscinanum Corner 1994
 Tricholoma fusipes E.Horak 1964
 Tricholoma fusisporum Singer 1943</t>
         </is>
@@ -824,7 +848,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Tricholoma</t>
+          <t>Liste_des_espèces_du_genre_Tricholoma</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -842,7 +866,9 @@
           <t>G</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Tricholoma gallaecicum (Blanco-Dios) Blanco-Dios, 2009
 Tricholoma gausapatum (Fr.) Quél. 1872
@@ -850,11 +876,11 @@
 Tricholoma glatfelteri (Murrill) Murrill 1914
 Tricholoma goliath (Fr.) S.Lundell &amp; Nannf. 1942
 Tricholoma goossensiae Beeli 1933
-Tricholoma graminicola Velen. 1920[2] – Europe
+Tricholoma graminicola Velen. 1920 – Europe
 Tricholoma grande Peck 1891
 Tricholoma granulosum Lebedeva 1949
-Tricholoma griseipileatum Corner 1994[3]
-Tricholoma griseoviolaceum Shanks 1996[11] – Amérique du Nord
+Tricholoma griseipileatum Corner 1994
+Tricholoma griseoviolaceum Shanks 1996 – Amérique du Nord
 Tricholoma groanense Viola 1959
 Tricholoma grossulariodorum E.Horak 1964
 Tricholoma guldeniae Mort.Chr. 2009</t>
@@ -867,7 +893,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Tricholoma</t>
+          <t>Liste_des_espèces_du_genre_Tricholoma</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -885,20 +911,22 @@
           <t>H</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Tricholoma hathorae Velen. 1939[7] – Europe
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Tricholoma hathorae Velen. 1939 – Europe
 Tricholoma hebeloma (Peck) Sacc. 1887
 Tricholoma hebelomoides E.Horak 1964
 Tricholoma hemisulphureum (Kühner) A. Riva ex Boffelli, 2016
 Tricholoma henningsii Sacc. &amp; Trotter 1912
 Tricholoma hirtellum Peck 1907
-Tricholoma holici Velen. 1920[2] – Europe
+Tricholoma holici Velen. 1920 – Europe
 Tricholoma horakii Raithelh. 1972
 Tricholoma hortorum Velen. 1925
 Tricholoma humosum (Quél.) S.Imai 1938
 Tricholoma huronense A.H. Sm., 1942
-Tricholoma hygrophanum Velen. 1939[7] – Europe</t>
+Tricholoma hygrophanum Velen. 1939 – Europe</t>
         </is>
       </c>
     </row>
@@ -908,7 +936,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Tricholoma</t>
+          <t>Liste_des_espèces_du_genre_Tricholoma</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -926,13 +954,15 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Tricholoma ilkkae Mort. Chr., Heilm.-Claus., Ryman &amp; N. Bergius, 2017
 Tricholoma imbricatum (Fr.) P.Kumm. 1871
 Tricholoma impudicum Velen. 1947
 Tricholoma inamoenum (Fr.) Gillet 1874
-Tricholoma inocyboides Corner 1994[3]
+Tricholoma inocyboides Corner 1994
 Tricholoma insigne Ovrebo 1989
 Tricholoma intermedium Peck 1888
 Tricholoma iputingaense Bat. &amp; A.F.Vital 1958</t>
@@ -945,7 +975,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Tricholoma</t>
+          <t>Liste_des_espèces_du_genre_Tricholoma</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -963,7 +993,9 @@
           <t>J</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Tricholoma jalapense (Murrill) Sacc. &amp; Trotter 1925
 Tricholoma jamaicensis (Murrill) Sacc. &amp; Trotter 1925
@@ -978,7 +1010,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Tricholoma</t>
+          <t>Liste_des_espèces_du_genre_Tricholoma</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -996,9 +1028,11 @@
           <t>K</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Tricholoma khakicolor Corner 1994[3]</t>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Tricholoma khakicolor Corner 1994</t>
         </is>
       </c>
     </row>
@@ -1008,7 +1042,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Tricholoma</t>
+          <t>Liste_des_espèces_du_genre_Tricholoma</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1026,17 +1060,19 @@
           <t>L</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Tricholoma laricicola Velen. 1939[7] – Europe
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Tricholoma laricicola Velen. 1939 – Europe
 Tricholoma lascivum (Fr.) Gillet 1874
 Tricholoma latifolium Speg. 1898
 Tricholoma lavendulophyllum F.Q.Yu 2006
-Tricholoma leoninum Velen. 1939[7] – Europe
+Tricholoma leoninum Velen. 1939 – Europe
 Tricholoma leucophyllum Ovrebo &amp; Tylutki 1975
 Tricholoma leucoterreum Mariotto &amp; Turetta 1996
 Tricholoma lilacinocinereum Métrod ex Bon 1990
-Tricholoma lobatum Velen. 1939[7] – Europe
+Tricholoma lobatum Velen. 1939 – Europe
 Tricholoma losii Kavina 1926
 Tricholoma luridum (Schaeff.) P.Kumm. 1871
 Tricholoma luteomaculosum A.H. Sm., 1942</t>
@@ -1049,7 +1085,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Tricholoma</t>
+          <t>Liste_des_espèces_du_genre_Tricholoma</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1067,39 +1103,41 @@
           <t>M</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>Tricholoma maculatipus Hongo 1962
 Tricholoma magellanicum (Speg.) Sacc. 1891
 Tricholoma magnivelare (Peck) Redhead 1984
 Tricholoma manzanitae T.J.Baroni &amp; Ovrebo 1983
-Tricholoma marasmiforme Velen. 1939[7] – Europe
+Tricholoma marasmiforme Velen. 1939 – Europe
 Tricholoma margarita (Murrill) Murrill 1940
 Tricholoma marquettense Ovrebo 1986
 Tricholoma matsutake (S.Ito &amp; S.Imai) Singer 1943
 Tricholoma mauritianum Peerally &amp; Sutra 1973
 Tricholoma megaphyllum Boud. 1910
 Tricholoma melleum Reschke, Popa, Zhu L. Yang &amp; G. Kost, 2018
-Tricholoma mensula Corner 1994[3]
+Tricholoma mensula Corner 1994
 Tricholoma meridianum A.Pearson 1950
 Tricholoma mesoamericanum Justo &amp; Cifuentes, 2017
 Tricholoma michiganense A.H. Sm., 1942
-Tricholoma microcarpoides Corner 1994[3]
-Tricholoma minutissimum Corner 1994[3]
+Tricholoma microcarpoides Corner 1994
+Tricholoma minutissimum Corner 1994
 Tricholoma minutum Corner 1994
 Tricholoma mnichovicense Velen. 1947
-Tricholoma montis-fraseri Corner 1994[3]
+Tricholoma montis-fraseri Corner 1994
 Tricholoma moseri Singer 1989
 Tricholoma moserianum Bon 1990
 Tricholoma mostnyae Singer 1969
 Tricholoma multifolium (Murrill) Murrill 1914
 Tricholoma multipunctum (Peck) Sacc. 1887
-Tricholoma muricatum Shanks 1996[11] – Amérique du Nord
+Tricholoma muricatum Shanks 1996 – Amérique du Nord
 Tricholoma murrillianum Singer 1942 – North America
 Tricholoma muscarioides Reschke, Popa, Zhu L. Yang &amp; G. Kost, 2018
 Tricholoma muscarium Kawam. ex Hongo 1959
 Tricholoma muscorum Velen. 1947
-Tricholoma mutabile Shanks 1996[11] – Amérique du Nord</t>
+Tricholoma mutabile Shanks 1996 – Amérique du Nord</t>
         </is>
       </c>
     </row>
@@ -1109,7 +1147,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Tricholoma</t>
+          <t>Liste_des_espèces_du_genre_Tricholoma</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1127,11 +1165,13 @@
           <t>N</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t>Tricholoma naranjanum Dennis 1951
-Tricholoma nigripes Velen. 1920[2] – Europe
-Tricholoma nigrum Shanks &amp; Ovrebo 1996[11] – Amérique du Nord
+Tricholoma nigripes Velen. 1920 – Europe
+Tricholoma nigrum Shanks &amp; Ovrebo 1996 – Amérique du Nord
 Tricholoma niveipes Peck, 1902
 Tricholoma nobile Peck 1889</t>
         </is>
@@ -1143,7 +1183,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Tricholoma</t>
+          <t>Liste_des_espèces_du_genre_Tricholoma</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1161,15 +1201,17 @@
           <t>O</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t>Tricholoma oblongisporum Bissett 1992
-Tricholoma obscurum Velen. 1920[2] – Europe
+Tricholoma obscurum Velen. 1920 – Europe
 Tricholoma ochraceorobustum E.Horak 1964
-Tricholoma odorimutabile Corner 1994[3]
-Tricholoma olens Velen. 1939[7] – Europe
-Tricholoma olgae Velen. 1920[2] – Europe
-Tricholoma olidum Velen. 1920[2] – Europe
+Tricholoma odorimutabile Corner 1994
+Tricholoma olens Velen. 1939 – Europe
+Tricholoma olgae Velen. 1920 – Europe
+Tricholoma olidum Velen. 1920 – Europe
 Tricholoma olivaceobrunneum Ovrebo 1986
 Tricholoma olivaceoflavum (Murrill) Sacc. &amp; Trotter 1925
 Tricholoma olivaceoluteolum Reschke, Popa, Zhu L. Yang &amp; G. Kost, 2018
@@ -1188,7 +1230,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Tricholoma</t>
+          <t>Liste_des_espèces_du_genre_Tricholoma</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1206,19 +1248,21 @@
           <t>P</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t>Tricholoma palustre A.H.Sm. 1942
 Tricholoma pampeanum Speg. 1898
-Tricholoma panicolor Corner 1994[3]
+Tricholoma panicolor Corner 1994
 Tricholoma pannonicum Bohus, 1960
 Tricholoma pardalotum Herink &amp; Kotl. 1967
 Tricholoma pardinum (Pers.) Quél. 1873
-Tricholoma parvisporum Corner 1994[3]
-Tricholoma pascuum Velen. 1939[7] – Europe
+Tricholoma parvisporum Corner 1994
+Tricholoma pascuum Velen. 1939 – Europe
 Tricholoma patagonicum Singer 1954
-Tricholoma penangense Corner 1994[3]
-Tricholoma permelleum Corner 1994[3]
+Tricholoma penangense Corner 1994
+Tricholoma permelleum Corner 1994
 Tricholoma persicinum (Fr.) Quél. 1872
 Tricholoma pessundatum (Fr.) Quél. 1872
 Tricholoma phoeniceum (Sacc.) Singer 1943
@@ -1226,25 +1270,25 @@
 Tricholoma pilatii Velen. 1925
 Tricholoma plagiotum (Kalchbr.) McAlpine 1895
 Tricholoma populinum J.E.Lange 1933
-Tricholoma porta-dalveyi Corner 1994[3]
+Tricholoma porta-dalveyi Corner 1994
 Tricholoma portentosum (Fr.) Quél. 1873
-Tricholoma praetervisum Velen. 1939[7] – Europe
+Tricholoma praetervisum Velen. 1939 – Europe
 Tricholoma pratense Pegler &amp; R.W.Rayner 1969
-Tricholoma preslii Velen. 1920[2] – Europe
-Tricholoma primulibrunneum Corner 1994[3]
+Tricholoma preslii Velen. 1920 – Europe
+Tricholoma primulibrunneum Corner 1994
 Tricholoma psammopus (Kalchbr.) Quél. 1875
 Tricholoma pseudoargyraceum Velen. 1925
 Tricholoma pseudoimbricatum J.E.Lange &amp; Terk. 1944
-Tricholoma pseudolimacium Velen. 1920[2] – Europe
+Tricholoma pseudolimacium Velen. 1920 – Europe
 Tricholoma pseudonictitans Bon 1983
-Tricholoma pseudoputidum Velen. 1939[7] – Europe
+Tricholoma pseudoputidum Velen. 1939 – Europe
 Tricholoma pseudorussula (Speg.) Sacc. 1891
 Tricholoma pseudosaponaceum Hásek 1959
 Tricholoma pullum Ovrebo 1989
 Tricholoma pulverulentipes (Murrill) Sacc. &amp; Trotter 1925
-Tricholoma purpureiflavum Corner 1994[3]
+Tricholoma purpureiflavum Corner 1994
 Tricholoma pusillisporum Speg. 1922
-Tricholoma pygmaeum Velen. 1920[2] – Europe</t>
+Tricholoma pygmaeum Velen. 1920 – Europe</t>
         </is>
       </c>
     </row>
@@ -1254,7 +1298,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Tricholoma</t>
+          <t>Liste_des_espèces_du_genre_Tricholoma</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1272,7 +1316,9 @@
           <t>Q</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t>Tricholoma quercetorum Contu 2004
 Tricholoma quercicola (Murrill) Murrill 1949</t>
@@ -1285,7 +1331,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Tricholoma</t>
+          <t>Liste_des_espèces_du_genre_Tricholoma</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,24 +1349,26 @@
           <t>R</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Tricholoma radicans Hongo 1968[12] – Japon
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Tricholoma radicans Hongo 1968 – Japon
 Tricholoma radotinense Peck 1903
 Tricholoma ramentaceum (Bull.) Ricken 1915
 Tricholoma rauli Garrido 1988
-Tricholoma rhizophoreti Corner 1994[3]
+Tricholoma rhizophoreti Corner 1994
 Tricholoma rigidovelatum Raithelh. 1991
 Tricholoma rimosoides Dennis 1951
 Tricholoma robiniae Velen. 1925
 Tricholoma robustum (Alb. &amp; Schwein.) Ricken 1915
 Tricholoma romagnesii Singer 1943
 Tricholoma roseoacerbum A.Riva 1984 – Europe, Amérique du Nord
-Tricholoma rostratum Velen. 1920[2] – Europe
-Tricholoma rubescens Velen. 1920[2] – Europe
+Tricholoma rostratum Velen. 1920 – Europe
+Tricholoma rubescens Velen. 1920 – Europe
 Tricholoma rufenum P.Donati 1994
 Tricholoma rufulum R.Heim 1934
-Tricholoma rugulicinctum Corner 1994[3]</t>
+Tricholoma rugulicinctum Corner 1994</t>
         </is>
       </c>
     </row>
@@ -1330,7 +1378,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Tricholoma</t>
+          <t>Liste_des_espèces_du_genre_Tricholoma</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1348,19 +1396,21 @@
           <t>S</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
         <is>
           <t>Tricholoma sanguinescens Velen. 1925
 Tricholoma saponaceum (Fr.) P.Kumm. 1871
 Tricholoma scabrum L.M.Dufour 1913
 Tricholoma scalpturatum (Fr.) Quél. 1872
-Tricholoma schustleri Velen. 1920[2] – Europe
+Tricholoma schustleri Velen. 1920 – Europe
 Tricholoma sciodes (Pers.) C.Martín 1919
 Tricholoma sejunctum (Sowerby) Quél. 1872
 Tricholoma sericeum Rick 1920
 Tricholoma sienna (Peck) Sacc. 1887
 Tricholoma silvaticum Peck 1889
-Tricholoma singaporense Corner 1994[3]
+Tricholoma singaporense Corner 1994
 Tricholoma sinoacerbum T.H. Li, Hosen &amp; Ting Li, 2015
 Tricholoma sinopardinum Zhu L. Yang, X.X. Ding, G. Kost &amp; Rexer, 2017
 Tricholoma sinoportentosum Zhu L. Yang, Reschke, Popa &amp; G. Kost, 2018
@@ -1372,7 +1422,7 @@
 Tricholoma stanekii Pilát 1953
 Tricholoma stans (Fr.) Sacc. 1887
 Tricholoma stiparophyllum (N.Lund) P.Karst. 1879
-Tricholoma stipitirufescens Corner 1994[3]
+Tricholoma stipitirufescens Corner 1994
 Tricholoma striatifolium (Peck) Sacc. 1887
 Tricholoma striatum (Schaeff.) Quél. 1872
 Tricholoma subamarum Herp. 1912
@@ -1382,18 +1432,18 @@
 Tricholoma subcinerascens Rick 1939
 Tricholoma subcinereiforme (Murrill) Sacc. &amp; Trotter 1925
 Tricholoma subclytocybe Velen. 1925
-Tricholoma subcuneifolium Corner 1994[3]
-Tricholoma subfuscum Velen. 1920[2] – Europe
-Tricholoma subglobisporum Bon 1976[4] – Europe
-Tricholoma subimbricatum Velen. 1920[2] – Europe
+Tricholoma subcuneifolium Corner 1994
+Tricholoma subfuscum Velen. 1920 – Europe
+Tricholoma subglobisporum Bon 1976 – Europe
+Tricholoma subimbricatum Velen. 1920 – Europe
 Tricholoma sublatum Murrill 1942
 Tricholoma subluteum Peck, 1904
 Tricholoma subniveum Velen. 1925
 Tricholoma subresplendens (Murrill) Murrill, 1914
 Tricholoma subsulphureum (Britzelm.) Sacc. &amp; Traverso 1911
-Tricholoma subumbrinum A.H.Sm. 1944[5] – Amérique du Nord
+Tricholoma subumbrinum A.H.Sm. 1944 – Amérique du Nord
 Tricholoma sudum (Fr.) Quél. 1873
-Tricholoma sulcatum Velen. 1920[2] – Europe
+Tricholoma sulcatum Velen. 1920 – Europe
 Tricholoma sulphurellum Rick 1919
 Tricholoma sulphurescens Bres. 1905
 Tricholoma sulphureum (Bull.) P.Kumm. 1871</t>
@@ -1406,7 +1456,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Tricholoma</t>
+          <t>Liste_des_espèces_du_genre_Tricholoma</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1424,13 +1474,15 @@
           <t>T</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Tricholoma tanzanianum Pegler 1977[13]
-Tricholoma tenacifolium Corner 1994[3]
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Tricholoma tanzanianum Pegler 1977
+Tricholoma tenacifolium Corner 1994
 Tricholoma tenue P.W.Graff 1914
 Tricholoma terreum (Schaeff.) P.Kumm. 1871
-Tricholoma testaceum G.Stev. 1964[10] – Nouvelle-Zélande
+Tricholoma testaceum G.Stev. 1964 – Nouvelle-Zélande
 Tricholoma thalliophilum Rob.Henry 1956
 Tricholoma tigrinum (Schaeff.) Gillet 1874
 Tricholoma transmutans (Peck) Sacc., 1887
@@ -1449,7 +1501,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Tricholoma</t>
+          <t>Liste_des_espèces_du_genre_Tricholoma</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1467,15 +1519,17 @@
           <t>U</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Tricholoma uliginosum Velen. 1920[2] – Europe
-Tricholoma ulvinenii Kalamees 2001[14]
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Tricholoma uliginosum Velen. 1920 – Europe
+Tricholoma ulvinenii Kalamees 2001
 Tricholoma umbonatum Clémençon &amp; Bon 1985
-Tricholoma umbraticum Corner 1994[3]
+Tricholoma umbraticum Corner 1994
 Tricholoma unifactum Peck 1906
 Tricholoma urbicum Ferrarese &amp; Zaffalon 2008
-Tricholoma uropus Corner 1994[3]
+Tricholoma uropus Corner 1994
 Tricholoma ustale (Fr.) P.Kumm. 1871
 Tricholoma ustaloides Romagn. 1954</t>
         </is>
@@ -1487,7 +1541,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Tricholoma</t>
+          <t>Liste_des_espèces_du_genre_Tricholoma</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1505,23 +1559,25 @@
           <t>V</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
         <is>
           <t>Tricholoma vaccinoides Pilát 1971
 Tricholoma vaccinum (Schaeff.) P.Kumm. 1871
-Tricholoma vacini Velen. 1939[7] – Europe
+Tricholoma vacini Velen. 1939 – Europe
 Tricholoma venenatum G.F. Atk., 1908
-Tricholoma vernale Velen. 1920[2] – Europe
-Tricholoma vernaticum Shanks 1996[11] – Amérique du Nord
-Tricholoma versicolor Velen. 1920[2] – Europe
-Tricholoma vestipes Velen. 1920[2] – Europe
-Tricholoma villosiparvum Corner 1994[3]
+Tricholoma vernale Velen. 1920 – Europe
+Tricholoma vernaticum Shanks 1996 – Amérique du Nord
+Tricholoma versicolor Velen. 1920 – Europe
+Tricholoma vestipes Velen. 1920 – Europe
+Tricholoma villosiparvum Corner 1994
 Tricholoma vinaceogriseum P.D.Orton 1987
-Tricholoma violaceibrunneum Corner 1994[3]
+Tricholoma violaceibrunneum Corner 1994
 Tricholoma virgatum (Fr.) P.Kumm. 1871
-Tricholoma viridifucatum Bon 1976[4] – Europe
+Tricholoma viridifucatum Bon 1976 – Europe
 Tricholoma viridilutescens M.M.Moser 1978
-Tricholoma viridiolivaceum G.Stev. 1964[10] – Nouvelle-Zélande</t>
+Tricholoma viridiolivaceum G.Stev. 1964 – Nouvelle-Zélande</t>
         </is>
       </c>
     </row>
@@ -1531,7 +1587,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Tricholoma</t>
+          <t>Liste_des_espèces_du_genre_Tricholoma</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1549,7 +1605,9 @@
           <t>W</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
         <is>
           <t>Tricholoma weizianum Reichert &amp; Aviz.-Hersh. 1959</t>
         </is>
@@ -1561,7 +1619,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Tricholoma</t>
+          <t>Liste_des_espèces_du_genre_Tricholoma</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1579,11 +1637,13 @@
           <t>Z</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Tricholoma zangii Z.M.Cao, Y.J.Yao &amp; Pegler 2003[15] – Chine
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Tricholoma zangii Z.M.Cao, Y.J.Yao &amp; Pegler 2003 – Chine
 Tricholoma zelleri (D.E.Stuntz &amp; A.H.Sm.) Ovrebo &amp; Tylutki 1975
-Tricholoma zonatum Velen. 1939[7] – Europe
+Tricholoma zonatum Velen. 1939 – Europe
 Tricholoma zvarae Velen. 1922</t>
         </is>
       </c>
